--- a/data/case1/5/Plm1_1.xlsx
+++ b/data/case1/5/Plm1_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.44790143146268235</v>
+        <v>-0.37990752884762458</v>
       </c>
       <c r="B1" s="0">
-        <v>0.44664492910777653</v>
+        <v>0.37906014479179362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.30199196410542584</v>
+        <v>-0.28076836278126827</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29852118420150831</v>
+        <v>0.27821696786047845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.19556767297628141</v>
+        <v>-0.17526878804605772</v>
       </c>
       <c r="B3" s="0">
-        <v>0.19446543594309418</v>
+        <v>0.17455050414512741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18246543611264698</v>
+        <v>-0.16255050431589524</v>
       </c>
       <c r="B4" s="0">
-        <v>0.18146474757186049</v>
+        <v>0.16190409989125243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17546474817750202</v>
+        <v>-0.15590410052867121</v>
       </c>
       <c r="B5" s="0">
-        <v>0.17345085550176798</v>
+        <v>0.15461097865715612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.095939156339117204</v>
+        <v>-0.053693907042594358</v>
       </c>
       <c r="B6" s="0">
-        <v>0.09580693107661542</v>
+        <v>0.053651218226137942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.075806931818036105</v>
+        <v>-0.0336512189971927</v>
       </c>
       <c r="B7" s="0">
-        <v>0.075500177997792406</v>
+        <v>0.033590045270232238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.055500178747085904</v>
+        <v>-0.013590046044767767</v>
       </c>
       <c r="B8" s="0">
-        <v>0.055267405957371452</v>
+        <v>0.013576787448246641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.04926740660477158</v>
+        <v>-0.0075767881138117943</v>
       </c>
       <c r="B9" s="0">
-        <v>0.049080716196882257</v>
+        <v>0.0075730241885985095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.04308071685225201</v>
+        <v>-0.0015730248552827675</v>
       </c>
       <c r="B10" s="0">
-        <v>0.043060009896088047</v>
+        <v>0.0015747254880338346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.038560010540525269</v>
+        <v>0.0029252738571514669</v>
       </c>
       <c r="B11" s="0">
-        <v>0.038522846227991181</v>
+        <v>-0.0029244967727990456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045414012287738004</v>
+        <v>0.0089244961061694106</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045157781722729329</v>
+        <v>-0.0089363080601589928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039157782391563423</v>
+        <v>0.014936307395704951</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039088218436188704</v>
+        <v>-0.014947405822335114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027088219155884552</v>
+        <v>0.026947405111591216</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027054856099510971</v>
+        <v>-0.026987707487334589</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021054856774198605</v>
+        <v>-0.021916253928893958</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028632929710689</v>
+        <v>0.021892651139609143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028633606747777</v>
+        <v>-0.01589265180273447</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004333149264415</v>
+        <v>0.015868061922714727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043338293916975</v>
+        <v>-0.0098680625889997486</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00899999929535511</v>
+        <v>0.009861174282823626</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.13465296559950701</v>
+        <v>-0.088291782639103644</v>
       </c>
       <c r="B18" s="0">
-        <v>0.13446989149207411</v>
+        <v>0.088215917347582717</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.10427291988793863</v>
+        <v>-0.07921591797002403</v>
       </c>
       <c r="B19" s="0">
-        <v>0.10324103136980156</v>
+        <v>0.078622992151370585</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.094241031983179013</v>
+        <v>-0.01801312625929441</v>
       </c>
       <c r="B20" s="0">
-        <v>0.094006105281412289</v>
+        <v>0.018004117273063613</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042690563918448</v>
+        <v>-0.0090041179148014905</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999993809048995</v>
+        <v>0.0089999993574343407</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093953511835190184</v>
+        <v>-0.093948180456331798</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093638821157872698</v>
+        <v>0.093635255355657421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084638821773605599</v>
+        <v>-0.084635256003168458</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127583337648915</v>
+        <v>0.084126820690291204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04212758422449614</v>
+        <v>-0.042126821611276455</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999108043085</v>
+        <v>0.041999999073254024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.07151169979045946</v>
+        <v>-0.094917072273020153</v>
       </c>
       <c r="B25" s="0">
-        <v>0.071423111744209677</v>
+        <v>0.094791059099208042</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.065423112373952819</v>
+        <v>-0.088791059760069402</v>
       </c>
       <c r="B26" s="0">
-        <v>0.065314692371497785</v>
+        <v>0.088628573342880657</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.059314693003327257</v>
+        <v>-0.083658898681844729</v>
       </c>
       <c r="B27" s="0">
-        <v>0.058963878667079861</v>
+        <v>0.083047264027666934</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.05296387930869173</v>
+        <v>-0.077047264706932239</v>
       </c>
       <c r="B28" s="0">
-        <v>0.052742870926677732</v>
+        <v>0.076643954938231396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.040742871622313714</v>
+        <v>-0.064643955675490972</v>
       </c>
       <c r="B29" s="0">
-        <v>0.040659782440876313</v>
+        <v>0.064466819858715496</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.020659783202763737</v>
+        <v>-0.044466820664855078</v>
       </c>
       <c r="B30" s="0">
-        <v>0.020558829431476688</v>
+        <v>0.044279608343875676</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0055588301568914034</v>
+        <v>-0.029279609117857319</v>
       </c>
       <c r="B31" s="0">
-        <v>0.0055257192941002842</v>
+        <v>0.029235415611902127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.015474279932839785</v>
+        <v>-0.0060004942579583442</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.015537756498054556</v>
+        <v>0.0059999992958399417</v>
       </c>
     </row>
   </sheetData>
